--- a/branches/ValueSet-be-vs-prescription-status.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-01T15:37:33+00:00</t>
+    <t>2022-02-08T09:26:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T09:26:27+00:00</t>
+    <t>2022-02-08T09:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T09:35:25+00:00</t>
+    <t>2022-02-08T09:37:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T09:37:29+00:00</t>
+    <t>2022-02-08T10:01:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T10:01:45+00:00</t>
+    <t>2022-02-08T10:08:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T10:08:35+00:00</t>
+    <t>2022-02-08T13:47:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T13:47:48+00:00</t>
+    <t>2022-02-08T14:21:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T14:21:10+00:00</t>
+    <t>2022-02-10T10:05:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T10:05:03+00:00</t>
+    <t>2022-02-10T10:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T10:07:35+00:00</t>
+    <t>2022-02-10T10:17:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T10:17:28+00:00</t>
+    <t>2022-02-10T10:18:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T10:18:13+00:00</t>
+    <t>2022-02-10T14:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T14:14:34+00:00</t>
+    <t>2022-02-10T14:16:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T14:16:39+00:00</t>
+    <t>2022-02-14T08:27:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T08:27:15+00:00</t>
+    <t>2022-02-14T08:33:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T08:33:39+00:00</t>
+    <t>2022-02-14T09:12:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T09:12:03+00:00</t>
+    <t>2022-02-14T09:13:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T09:13:01+00:00</t>
+    <t>2022-02-14T10:40:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T10:40:00+00:00</t>
+    <t>2022-02-14T10:44:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T10:44:55+00:00</t>
+    <t>2022-02-14T11:05:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T11:05:09+00:00</t>
+    <t>2022-02-14T11:05:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T11:05:42+00:00</t>
+    <t>2022-02-17T07:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T07:59:14+00:00</t>
+    <t>2022-02-17T07:59:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T07:59:49+00:00</t>
+    <t>2022-02-17T10:42:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T10:42:28+00:00</t>
+    <t>2022-02-17T10:42:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T10:42:34+00:00</t>
+    <t>2022-02-22T14:45:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T14:45:52+00:00</t>
+    <t>2022-02-22T16:17:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:17:43+00:00</t>
+    <t>2022-02-22T16:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:23:19+00:00</t>
+    <t>2022-02-23T09:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T09:46:03+00:00</t>
+    <t>2022-02-23T15:29:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T15:29:02+00:00</t>
+    <t>2022-02-23T15:34:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T15:34:51+00:00</t>
+    <t>2022-03-02T14:57:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-02T14:57:26+00:00</t>
+    <t>2022-03-23T15:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-prescription-status.xlsx
+++ b/branches/ValueSet-be-vs-prescription-status.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-prescription-status</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-prescription-status</t>
   </si>
   <si>
     <t>Version</t>
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T15:53:34+00:00</t>
+    <t>2022-05-03T10:04:16+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -136,7 +136,7 @@
     <t>other</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-prescription-status</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/CodeSystem/be-prescription-status</t>
   </si>
 </sst>
 </file>
